--- a/media/Excel/#Manmadhudu2.xlsx
+++ b/media/Excel/#Manmadhudu2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="423">
   <si>
     <t>User_Name</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Bio</t>
   </si>
   <si>
+    <t>Tweet_id</t>
+  </si>
+  <si>
     <t>Tweet</t>
   </si>
   <si>
@@ -64,7 +67,19 @@
     <t>Verified</t>
   </si>
   <si>
-    <t>Mega Tollywood</t>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negitive</t>
+  </si>
+  <si>
+    <t>Heavenly Hell</t>
+  </si>
+  <si>
+    <t>praveeNag</t>
+  </si>
+  <si>
+    <t>Syeraa Official News</t>
   </si>
   <si>
     <t>Heart Breaker💓💓</t>
@@ -121,7 +136,7 @@
     <t>KaushalArmy USA 🇺🇸</t>
   </si>
   <si>
-    <t>DrEaMeR</t>
+    <t>.</t>
   </si>
   <si>
     <t>power star</t>
@@ -184,13 +199,13 @@
     <t>Samantha Fans</t>
   </si>
   <si>
-    <t>rajmouli ss</t>
-  </si>
-  <si>
-    <t>Fusion😎</t>
-  </si>
-  <si>
-    <t>MEGA_TOLLYWOOD</t>
+    <t>DPbleats</t>
+  </si>
+  <si>
+    <t>Praveenogl</t>
+  </si>
+  <si>
+    <t>syeraa_official</t>
   </si>
   <si>
     <t>heart_breaker_n</t>
@@ -304,10 +319,10 @@
     <t>SamanthafansOff</t>
   </si>
   <si>
-    <t>__R_U_S_H_I_</t>
-  </si>
-  <si>
-    <t>unisnag19</t>
+    <t>hyderabad</t>
+  </si>
+  <si>
+    <t>Hyderabad,TS/Ongole,AP</t>
   </si>
   <si>
     <t>Raleigh NC</t>
@@ -352,7 +367,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>hyderabad</t>
+    <t>Chilakaluripeta chilakala cmpn</t>
   </si>
   <si>
     <t>బెంగళూరు</t>
@@ -382,7 +397,10 @@
     <t>Cuddapah, India</t>
   </si>
   <si>
-    <t>Nee Yedhuruga</t>
+    <t>Spammer</t>
+  </si>
+  <si>
+    <t>CINEMA piccha || AKKINENI fanatic || DHONI sena || ThalapathyVIJAY Rasigan || PURI follower || NOT PERMANENT</t>
   </si>
   <si>
     <t>Make Tollywood better</t>
@@ -516,10 +534,146 @@
     <t>HArd COre FAn oF sAmanTha</t>
   </si>
   <si>
-    <t>journey of a man which can't be discribe at present..🤴
-backup account of @iamRushvik
-#AnushkaShetty - Crush, love, Dream girl
- 💘💝💞❤️😍🥰😘</t>
+    <t>1169764412162363392</t>
+  </si>
+  <si>
+    <t>1169531003842355204</t>
+  </si>
+  <si>
+    <t>1168654817453121536</t>
+  </si>
+  <si>
+    <t>1168542439126126592</t>
+  </si>
+  <si>
+    <t>1168512524448350210</t>
+  </si>
+  <si>
+    <t>1168122269693931520</t>
+  </si>
+  <si>
+    <t>1168012179980861440</t>
+  </si>
+  <si>
+    <t>1167684402836455429</t>
+  </si>
+  <si>
+    <t>1167620242513649664</t>
+  </si>
+  <si>
+    <t>1167560625624469504</t>
+  </si>
+  <si>
+    <t>1167542055154794496</t>
+  </si>
+  <si>
+    <t>1167518644726685696</t>
+  </si>
+  <si>
+    <t>1167504760280252419</t>
+  </si>
+  <si>
+    <t>1167449178328317954</t>
+  </si>
+  <si>
+    <t>1167405006170902528</t>
+  </si>
+  <si>
+    <t>1167403505885175813</t>
+  </si>
+  <si>
+    <t>1167392631581638656</t>
+  </si>
+  <si>
+    <t>1167392520034062337</t>
+  </si>
+  <si>
+    <t>1167392021587218432</t>
+  </si>
+  <si>
+    <t>1167306186468651010</t>
+  </si>
+  <si>
+    <t>1167300511743143937</t>
+  </si>
+  <si>
+    <t>1167282025956610049</t>
+  </si>
+  <si>
+    <t>1167261280412917760</t>
+  </si>
+  <si>
+    <t>1167086220096065538</t>
+  </si>
+  <si>
+    <t>1167053810046423040</t>
+  </si>
+  <si>
+    <t>1167044220638547970</t>
+  </si>
+  <si>
+    <t>1167044218805600257</t>
+  </si>
+  <si>
+    <t>1167027743189434369</t>
+  </si>
+  <si>
+    <t>1166998927641632768</t>
+  </si>
+  <si>
+    <t>1166977451584413696</t>
+  </si>
+  <si>
+    <t>1166974016277614592</t>
+  </si>
+  <si>
+    <t>1166967984872546304</t>
+  </si>
+  <si>
+    <t>1166963570178805761</t>
+  </si>
+  <si>
+    <t>1166963364502765568</t>
+  </si>
+  <si>
+    <t>1166962340840886274</t>
+  </si>
+  <si>
+    <t>1166947648533757952</t>
+  </si>
+  <si>
+    <t>1166933046416703488</t>
+  </si>
+  <si>
+    <t>1166922403391262720</t>
+  </si>
+  <si>
+    <t>1166916107149512706</t>
+  </si>
+  <si>
+    <t>1166785907506073600</t>
+  </si>
+  <si>
+    <t>1166765552494202880</t>
+  </si>
+  <si>
+    <t>1166721866435678210</t>
+  </si>
+  <si>
+    <t>1166689870158290946</t>
+  </si>
+  <si>
+    <t>1166648018650615808</t>
+  </si>
+  <si>
+    <t>1166633818851368962</t>
+  </si>
+  <si>
+    <t>And my all-time favorites #Rikshavodu #Narasimhudu #Paramaveerachakra #EkNiranjan  Especially #Manmadhudu2</t>
+  </si>
+  <si>
+    <t>Ponle Ilagyna Upayogapaduthundhi 🤙🏽
+#Manmadhudu2 https://t.co/QgfO1MKBGM</t>
   </si>
   <si>
     <t>What is the biggest flop movie in the recent times?
@@ -720,26 +874,6 @@
 #Nagarjuna #hbdnagarjuna #bangarraju #Manmadhudu2</t>
   </si>
   <si>
-    <t>@_beinggkingg_ #Manmadhudu2 ki vellaledha broo</t>
-  </si>
-  <si>
-    <t>@itsmeGAK @chay_akkineni @Viacom18Studios #Manmadhudu2 https://t.co/JelqA6LRpf</t>
-  </si>
-  <si>
-    <t>Ranarangam telugu Box Office Collection Day 11 
-#Ranarangam 
- #BoxOffice #Tollywood #Sharwanand #Saaho
-#IslamIsPeace
-, #Manmadhudu2, #iSmartShankar, #Rakshasudu, #Syeraa, #Guna369, #Kurukshetra, #Evaru #
- #ChidambaramMissing 
-#ArunJaitley
-https://t.co/UCMmDqaNze</t>
-  </si>
-  <si>
-    <t>#Nani Shocks #RahulRavindran,?
-#NaturalStarNani #DirectorRahulRavindran #Manmadhudu2 #ChiLaSow</t>
-  </si>
-  <si>
     <t>me_ushasi</t>
   </si>
   <si>
@@ -755,15 +889,12 @@
     <t>surendra_Bza</t>
   </si>
   <si>
-    <t>_beinggkingg_</t>
-  </si>
-  <si>
-    <t>itsmeGAK</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
+    <t>['https://twitter.com/Praveenogl/status/1169531003842355204/photo/1']</t>
+  </si>
+  <si>
     <t>['https://twitter.com/myself_tgk/status/1167684402836455429/photo/1']</t>
   </si>
   <si>
@@ -797,12 +928,12 @@
     <t>['https://twitter.com/nithishachinni/status/1166648018650615808/photo/1']</t>
   </si>
   <si>
-    <t>['https://twitter.com/unisnag19/status/1165933148623892481/photo/1']</t>
-  </si>
-  <si>
     <t>en</t>
   </si>
   <si>
+    <t>und</t>
+  </si>
+  <si>
     <t>te</t>
   </si>
   <si>
@@ -815,7 +946,10 @@
     <t>kn</t>
   </si>
   <si>
-    <t>und</t>
+    <t>https://twitter.com/statuses/1169764412162363392</t>
+  </si>
+  <si>
+    <t>https://twitter.com/statuses/1169531003842355204</t>
   </si>
   <si>
     <t>https://twitter.com/statuses/1168654817453121536</t>
@@ -947,127 +1081,109 @@
     <t>https://twitter.com/statuses/1166633818851368962</t>
   </si>
   <si>
-    <t>https://twitter.com/statuses/1166381410589954048</t>
-  </si>
-  <si>
-    <t>https://twitter.com/statuses/1165933148623892481</t>
-  </si>
-  <si>
-    <t>https://twitter.com/statuses/1165919363045609472</t>
-  </si>
-  <si>
-    <t>https://twitter.com/statuses/1165864118965817345</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>['SyeRaNarasimhaReddy', 'MaheshBabu', 'RamCharan', 'jrNTR', 'RRR', 'AlluArjun', 'spyder', 'agynathavasi', 'saaho', 'prabhas', 'Manmadhudu2']</t>
+    <t>['Narasimhudu', 'Rikshavodu', 'Manmadhudu2', 'EkNiranjan', 'Paramaveerachakra']</t>
   </si>
   <si>
     <t>['Manmadhudu2']</t>
   </si>
   <si>
+    <t>['prabhas', 'spyder', 'agynathavasi', 'RRR', 'saaho', 'jrNTR', 'MaheshBabu', 'AlluArjun', 'RamCharan', 'Manmadhudu2', 'SyeRaNarasimhaReddy']</t>
+  </si>
+  <si>
     <t>['Bangarraju', 'Manmadhudu2']</t>
   </si>
   <si>
-    <t>['Nagarjuna', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['saahoo', 'RGV', 'SaahoBlockbusterOpening', 'RRR', 'tollywood', 'PVSindhu', 'Saahoreview', 'akhil', 'Nagarjuna', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['Saaho', 'Tollywood', 'Manmadhudu2', 'vennelakishore']</t>
+    <t>['Manmadhudu2', 'Nagarjuna']</t>
+  </si>
+  <si>
+    <t>['saahoo', 'akhil', 'Saahoreview', 'RGV', 'PVSindhu', 'RRR', 'SaahoBlockbusterOpening', 'Manmadhudu2', 'tollywood', 'Nagarjuna']</t>
+  </si>
+  <si>
+    <t>['Saaho', 'vennelakishore', 'Manmadhudu2', 'Tollywood']</t>
   </si>
   <si>
     <t>['manmadhudu2']</t>
   </si>
   <si>
-    <t>['Ranarangam', 'Saaho', 'Rakshasudu', 'Evaru', 'KousalyaKrishnamurthy', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['DearComrade', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['NagarjunaAkkineni', 'Nagarjuna', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['Venky', 'F2', 'VinayaVidheyaRama', 'Maharshi', 'Kathanayakudu', 'Sahoo', 'Mahanayakudu', 'Mahesh', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['Akkinenifamily', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['Kingnagarjuna', 'NagarjunaAkkineni', 'Nagarjuna', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['NagarjunaAkkineni', 'Tollywood', 'TAAEntertainment', 'Nagarjuna', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['NagarjunaAkkineni', 'Tollywood', 'Nagarjuna', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['Nagarjuna', 'Tollywood', 'Manmadhudu2']</t>
+    <t>['Evaru', 'Manmadhudu2', 'KousalyaKrishnamurthy', 'Rakshasudu', 'Ranarangam', 'Saaho']</t>
+  </si>
+  <si>
+    <t>['Manmadhudu2', 'DearComrade']</t>
+  </si>
+  <si>
+    <t>['Manmadhudu2', 'NagarjunaAkkineni', 'Nagarjuna']</t>
+  </si>
+  <si>
+    <t>['Sahoo', 'Mahanayakudu', 'Kathanayakudu', 'VinayaVidheyaRama', 'Maharshi', 'Venky', 'Mahesh', 'Manmadhudu2', 'F2']</t>
+  </si>
+  <si>
+    <t>['Manmadhudu2', 'Akkinenifamily']</t>
+  </si>
+  <si>
+    <t>['Kingnagarjuna', 'Manmadhudu2', 'NagarjunaAkkineni', 'Nagarjuna']</t>
+  </si>
+  <si>
+    <t>['TAAEntertainment', 'Tollywood', 'Manmadhudu2', 'NagarjunaAkkineni', 'Nagarjuna']</t>
+  </si>
+  <si>
+    <t>['Manmadhudu2', 'Tollywood', 'NagarjunaAkkineni', 'Nagarjuna']</t>
+  </si>
+  <si>
+    <t>['Manmadhudu2', 'Tollywood', 'Nagarjuna']</t>
   </si>
   <si>
     <t>['Saaho', 'Manmadhudu2']</t>
   </si>
   <si>
-    <t>['Rx100', 'manmadhudu2', 'Guna369']</t>
-  </si>
-  <si>
-    <t>['HappyBirthdayNagarjuna', 'HBDKingNagarjuna', 'HBDTrendSetterKingNag', 'HBDNagarjuna', 'HBDTrendSetterNag', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['Tollywood', 'Nagarjuna', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['KingNagarjuna', 'Nagachaitanya', 'Akhil', 'AkkieneniNagarjuna', 'Samantha', 'AmalaAkkineni', 'Nagarjuna', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['HBDKingNagarjuna', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['HBDNagarjuna', 'AkkineniNagarjuna', 'NagarjunaAkkineni', 'Manmadhudu2']</t>
+    <t>['Guna369', 'manmadhudu2', 'Rx100']</t>
+  </si>
+  <si>
+    <t>['HBDNagarjuna', 'HBDTrendSetterNag', 'HappyBirthdayNagarjuna', 'HBDTrendSetterKingNag', 'Manmadhudu2', 'HBDKingNagarjuna']</t>
+  </si>
+  <si>
+    <t>['AkkieneniNagarjuna', 'Nagachaitanya', 'Akhil', 'KingNagarjuna', 'Manmadhudu2', 'AmalaAkkineni', 'Samantha', 'Nagarjuna']</t>
+  </si>
+  <si>
+    <t>['Manmadhudu2', 'HBDKingNagarjuna']</t>
+  </si>
+  <si>
+    <t>['Manmadhudu2', 'HBDNagarjuna', 'AkkineniNagarjuna', 'NagarjunaAkkineni']</t>
   </si>
   <si>
     <t>['Manmadhudu2', 'HappyBirthdayNagarjuna']</t>
   </si>
   <si>
-    <t>['cininews', 'kfi', 'mollywood', 'SocialMedia', 'Media', 'news', 'Sandalwood', 'tollywood', 'bollywood', 'GMedia', 'manmadhudu2', 'kannadafilmindustry', 'onlinenews', 'kollywood']</t>
+    <t>['cininews', 'GMedia', 'kfi', 'onlinenews', 'Sandalwood', 'Media', 'news', 'manmadhudu2', 'kannadafilmindustry', 'kollywood', 'SocialMedia', 'bollywood', 'tollywood', 'mollywood']</t>
   </si>
   <si>
     <t>['HappyBirthdayKingNagarjuna', 'Manmadhudu2', 'HappyBirthdayNagarjuna']</t>
   </si>
   <si>
-    <t>['handsome', 'HBDNagarjuna', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['King', 'MrEverFantastic', 'HappyBirthdayAkkineniNagarjuna', 'CarnivalCinemas', 'BirthdayWishes', 'AkkineniNagarjuna', 'ShirdiSai', 'CarnivalWishes', 'Mass', 'Manmadhudu2', 'HBDAkkineniNagarjuna']</t>
-  </si>
-  <si>
-    <t>['Rajinikanth', 'Thalaivar', 'HBDKingNagarjuna', 'Darbar', 'Ravichandran', 'HBDTrendSetterNagAdvance', 'HBDTrendSetterNag', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['BoxOffice', 'Guna369', 'Sharwanand', 'Kurukshetra', 'Ranarangam', 'Tollywood', 'Saaho', 'Rakshasudu', 'iSmartShankar', 'ChidambaramMissing', 'Evaru', 'Syeraa', 'PawanKalyanBirthdayCDP', 'ArunJaitley', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['NagaChaitanya', 'Amala', 'Akhil', 'AkkieneniNagarjuna', 'Samantha', 'Nagarjuna', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['Vikram', 'HBDKingNagarjuna', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['Manmadhudu2', 'hbdnagarjuna', 'Nagarjuna', 'bangarraju']</t>
-  </si>
-  <si>
-    <t>['BoxOffice', 'Guna369', 'Sharwanand', 'Kurukshetra', 'Ranarangam', 'Tollywood', 'Saaho', 'IslamIsPeace', 'Rakshasudu', 'iSmartShankar', 'ChidambaramMissing', 'Evaru', 'Syeraa', 'ArunJaitley', 'Manmadhudu2']</t>
-  </si>
-  <si>
-    <t>['NaturalStarNani', 'ChiLaSow', 'Nani', 'DirectorRahulRavindran', 'RahulRavindran', 'Manmadhudu2']</t>
+    <t>['Manmadhudu2', 'handsome', 'HBDNagarjuna']</t>
+  </si>
+  <si>
+    <t>['CarnivalCinemas', 'AkkineniNagarjuna', 'MrEverFantastic', 'HappyBirthdayAkkineniNagarjuna', 'Mass', 'ShirdiSai', 'CarnivalWishes', 'BirthdayWishes', 'King', 'Manmadhudu2', 'HBDAkkineniNagarjuna']</t>
+  </si>
+  <si>
+    <t>['HBDTrendSetterNagAdvance', 'Darbar', 'Manmadhudu2', 'HBDTrendSetterNag', 'Rajinikanth', 'Thalaivar', 'Ravichandran', 'HBDKingNagarjuna']</t>
+  </si>
+  <si>
+    <t>['Evaru', 'Manmadhudu2', 'ArunJaitley', 'PawanKalyanBirthdayCDP', 'Rakshasudu', 'Sharwanand', 'Guna369', 'Ranarangam', 'iSmartShankar', 'Tollywood', 'Syeraa', 'ChidambaramMissing', 'Saaho', 'BoxOffice', 'Kurukshetra']</t>
+  </si>
+  <si>
+    <t>['Amala', 'AkkieneniNagarjuna', 'Akhil', 'NagaChaitanya', 'Manmadhudu2', 'Samantha', 'Nagarjuna']</t>
+  </si>
+  <si>
+    <t>['Manmadhudu2', 'HBDKingNagarjuna', 'Vikram']</t>
+  </si>
+  <si>
+    <t>['bangarraju', 'Manmadhudu2', 'hbdnagarjuna', 'Nagarjuna']</t>
   </si>
   <si>
     <t>['iamnagarjuna']</t>
@@ -1076,37 +1192,37 @@
     <t>['AkhilAkkineni8']</t>
   </si>
   <si>
-    <t>['Sudha_2012', 'Mohanballa8', 'YoursTrulyKrish', 'me_ushasi']</t>
+    <t>['YoursTrulyKrish', 'Sudha_2012', 'Mohanballa8', 'me_ushasi']</t>
   </si>
   <si>
     <t>['PrimeVideoIN']</t>
   </si>
   <si>
-    <t>['bharat_2214', 'BumchikSeenu', 'vegevenkatvijay', 'moviezealot9999']</t>
+    <t>['BumchikSeenu', 'vegevenkatvijay', 'moviezealot9999', 'bharat_2214']</t>
   </si>
   <si>
     <t>['iamnagarjuna', 'AkhilAkkineni8']</t>
   </si>
   <si>
-    <t>['prashantbme', 'Just_Naniiiii']</t>
-  </si>
-  <si>
-    <t>['iamnagarjuna', 'RaviTeja_offl']</t>
+    <t>['Just_Naniiiii', 'prashantbme']</t>
+  </si>
+  <si>
+    <t>['RaviTeja_offl', 'iamnagarjuna']</t>
   </si>
   <si>
     <t>['iamnagarjuna', 'surendra_Bza']</t>
   </si>
   <si>
-    <t>['iamnagarjuna', 'rajinikanth', 'iam_juhi']</t>
-  </si>
-  <si>
-    <t>['iamnagarjuna', 'Samanthaprabhu2', 'chay_akkineni', 'AkhilAkkineni8', 'amalaakkineni1']</t>
-  </si>
-  <si>
-    <t>['_beinggkingg_']</t>
-  </si>
-  <si>
-    <t>['Viacom18Studios', 'chay_akkineni', 'itsmeGAK']</t>
+    <t>['iamnagarjuna', 'iam_juhi', 'rajinikanth']</t>
+  </si>
+  <si>
+    <t>['chay_akkineni', 'Samanthaprabhu2', 'AkhilAkkineni8', 'iamnagarjuna', 'amalaakkineni1']</t>
+  </si>
+  <si>
+    <t>Sep-06-2019</t>
+  </si>
+  <si>
+    <t>Sep-05-2019</t>
   </si>
   <si>
     <t>Sep-02-2019</t>
@@ -1127,10 +1243,10 @@
     <t>Aug-28-2019</t>
   </si>
   <si>
-    <t>Aug-27-2019</t>
-  </si>
-  <si>
-    <t>Aug-26-2019</t>
+    <t>00:09:03</t>
+  </si>
+  <si>
+    <t>08:41:34</t>
   </si>
   <si>
     <t>22:39:55</t>
@@ -1257,18 +1373,6 @@
   </si>
   <si>
     <t>08:49:12</t>
-  </si>
-  <si>
-    <t>16:06:13</t>
-  </si>
-  <si>
-    <t>10:24:59</t>
-  </si>
-  <si>
-    <t>09:30:12</t>
-  </si>
-  <si>
-    <t>05:50:41</t>
   </si>
 </sst>
 </file>
@@ -1639,13 +1743,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1694,2394 +1798,2709 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>166</v>
+      </c>
+      <c r="G2" t="s">
+        <v>211</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K2" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="L2" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M2" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="N2" t="s">
-        <v>215</v>
+        <v>327</v>
       </c>
       <c r="O2" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="P2" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q2" t="b">
+        <v>371</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>379</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.412</v>
+      </c>
+      <c r="T2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" t="s">
-        <v>215</v>
+        <v>167</v>
+      </c>
+      <c r="G3" t="s">
+        <v>212</v>
       </c>
       <c r="I3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>281</v>
       </c>
       <c r="L3" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M3" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="N3" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="O3" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="P3" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q3" t="b">
+        <v>372</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>380</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" t="s">
-        <v>215</v>
+        <v>168</v>
+      </c>
+      <c r="G4" t="s">
+        <v>213</v>
       </c>
       <c r="I4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="K4" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="L4" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M4" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="N4" t="s">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="O4" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="P4" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>0</v>
+        <v>373</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>381</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.211</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" t="s">
-        <v>215</v>
+        <v>169</v>
+      </c>
+      <c r="G5" t="s">
+        <v>214</v>
       </c>
       <c r="I5" t="s">
-        <v>228</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="K5" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J5" t="s">
+        <v>274</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="L5" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M5" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="N5" t="s">
-        <v>215</v>
+        <v>328</v>
       </c>
       <c r="O5" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="P5" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q5" t="b">
+        <v>373</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" t="s">
         <v>215</v>
       </c>
       <c r="I6" t="s">
-        <v>228</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K6" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="L6" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M6" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="N6" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="O6" t="s">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="P6" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q6" t="b">
+        <v>373</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>383</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.169</v>
+      </c>
+      <c r="T6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" t="s">
         <v>216</v>
       </c>
       <c r="I7" t="s">
-        <v>228</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K7" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="L7" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M7" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="N7" t="s">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="O7" t="s">
-        <v>333</v>
+        <v>261</v>
       </c>
       <c r="P7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q7" t="b">
+        <v>374</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>384</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" t="s">
-        <v>215</v>
+        <v>172</v>
+      </c>
+      <c r="G8" t="s">
+        <v>217</v>
       </c>
       <c r="I8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="K8" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J8" t="s">
+        <v>274</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="L8" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M8" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="N8" t="s">
-        <v>215</v>
+        <v>332</v>
       </c>
       <c r="O8" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="P8" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>1</v>
+        <v>374</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>385</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.245</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>208</v>
-      </c>
-      <c r="H9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I9" t="s">
-        <v>228</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="K9" t="s">
-        <v>281</v>
+        <v>263</v>
+      </c>
+      <c r="J9" t="s">
+        <v>274</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="L9" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M9" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="N9" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="O9" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="P9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q9" t="b">
+        <v>375</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>386</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H10" t="s">
-        <v>215</v>
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
+        <v>219</v>
       </c>
       <c r="I10" t="s">
-        <v>228</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="K10" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J10" t="s">
+        <v>276</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="L10" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M10" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="N10" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="O10" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="P10" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q10" t="b">
+        <v>375</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>387</v>
+      </c>
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>175</v>
+      </c>
+      <c r="G11" t="s">
+        <v>220</v>
       </c>
       <c r="H11" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="I11" t="s">
-        <v>228</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="K11" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J11" t="s">
+        <v>274</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="L11" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M11" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="N11" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="O11" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="P11" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q11" t="b">
+        <v>376</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>388</v>
+      </c>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" t="s">
-        <v>215</v>
+        <v>176</v>
+      </c>
+      <c r="G12" t="s">
+        <v>221</v>
       </c>
       <c r="I12" t="s">
-        <v>228</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="K12" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L12" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M12" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="N12" t="s">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="O12" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="P12" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q12" t="b">
-        <v>1</v>
+        <v>376</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>389</v>
+      </c>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.378</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" t="s">
-        <v>215</v>
+        <v>177</v>
+      </c>
+      <c r="G13" t="s">
+        <v>222</v>
       </c>
       <c r="I13" t="s">
-        <v>230</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="K13" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J13" t="s">
+        <v>274</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="L13" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M13" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="N13" t="s">
-        <v>215</v>
+        <v>336</v>
       </c>
       <c r="O13" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="P13" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q13" t="b">
+        <v>376</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>390</v>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G14" t="s">
-        <v>209</v>
-      </c>
-      <c r="H14" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I14" t="s">
-        <v>228</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K14" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J14" t="s">
+        <v>274</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="L14" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M14" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="N14" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="O14" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="P14" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q14" t="b">
+        <v>376</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>391</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
-      </c>
-      <c r="H15" t="s">
-        <v>218</v>
+        <v>179</v>
+      </c>
+      <c r="G15" t="s">
+        <v>224</v>
       </c>
       <c r="I15" t="s">
-        <v>228</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="K15" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J15" t="s">
+        <v>277</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="L15" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M15" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="N15" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="O15" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="P15" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q15" t="b">
+        <v>376</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>392</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.355</v>
+      </c>
+      <c r="T15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>180</v>
+      </c>
+      <c r="G16" t="s">
+        <v>225</v>
       </c>
       <c r="H16" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="I16" t="s">
-        <v>228</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="K16" t="s">
-        <v>281</v>
+        <v>264</v>
+      </c>
+      <c r="J16" t="s">
+        <v>274</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="L16" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M16" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="N16" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="O16" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="P16" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q16" t="b">
+        <v>376</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>393</v>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.381</v>
+      </c>
+      <c r="T16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" t="s">
-        <v>215</v>
+        <v>181</v>
+      </c>
+      <c r="G17" t="s">
+        <v>226</v>
       </c>
       <c r="I17" t="s">
-        <v>228</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K17" t="s">
-        <v>281</v>
+        <v>265</v>
+      </c>
+      <c r="J17" t="s">
+        <v>274</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="L17" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M17" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="N17" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="O17" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="P17" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q17" t="b">
-        <v>1</v>
+        <v>376</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>394</v>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
-      </c>
-      <c r="H18" t="s">
-        <v>215</v>
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>227</v>
       </c>
       <c r="I18" t="s">
-        <v>228</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="K18" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J18" t="s">
+        <v>274</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="L18" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M18" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="N18" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="O18" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="P18" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q18" t="b">
+        <v>376</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>395</v>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
         <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" t="s">
-        <v>215</v>
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>228</v>
       </c>
       <c r="I19" t="s">
-        <v>228</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="K19" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J19" t="s">
+        <v>274</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="L19" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M19" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="N19" t="s">
-        <v>215</v>
+        <v>342</v>
       </c>
       <c r="O19" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="P19" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q19" t="b">
+        <v>376</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>396</v>
+      </c>
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="I20" t="s">
-        <v>231</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K20" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J20" t="s">
+        <v>274</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="L20" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M20" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="N20" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="O20" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="P20" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q20" t="b">
+        <v>376</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>397</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
-      </c>
-      <c r="H21" t="s">
-        <v>219</v>
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>230</v>
       </c>
       <c r="I21" t="s">
-        <v>228</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="K21" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J21" t="s">
+        <v>274</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="L21" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M21" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="N21" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="O21" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="P21" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q21" t="b">
+        <v>376</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>398</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.244</v>
+      </c>
+      <c r="T21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
+        <v>231</v>
       </c>
       <c r="H22" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="I22" t="s">
-        <v>228</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="K22" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J22" t="s">
+        <v>278</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="L22" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M22" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="N22" t="s">
-        <v>215</v>
+        <v>328</v>
       </c>
       <c r="O22" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="P22" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q22" t="b">
+        <v>376</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>399</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
-      </c>
-      <c r="H23" t="s">
-        <v>215</v>
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>232</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K23" t="s">
-        <v>281</v>
+        <v>266</v>
+      </c>
+      <c r="J23" t="s">
+        <v>274</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="L23" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M23" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="N23" t="s">
-        <v>215</v>
+        <v>328</v>
       </c>
       <c r="O23" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="P23" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q23" t="b">
+        <v>376</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>400</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
-      </c>
-      <c r="H24" t="s">
-        <v>220</v>
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>233</v>
       </c>
       <c r="I24" t="s">
-        <v>228</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K24" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J24" t="s">
+        <v>274</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="L24" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M24" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>345</v>
       </c>
       <c r="O24" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="P24" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q24" t="b">
+        <v>376</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>401</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.213</v>
+      </c>
+      <c r="T24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
-      </c>
-      <c r="H25" t="s">
-        <v>215</v>
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>234</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K25" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J25" t="s">
+        <v>274</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="L25" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M25" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>334</v>
       </c>
       <c r="O25" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="P25" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q25" t="b">
+        <v>377</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>402</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.394</v>
+      </c>
+      <c r="T25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H26" t="s">
-        <v>215</v>
+        <v>190</v>
+      </c>
+      <c r="G26" t="s">
+        <v>235</v>
       </c>
       <c r="I26" t="s">
-        <v>229</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K26" t="s">
-        <v>281</v>
+        <v>267</v>
+      </c>
+      <c r="J26" t="s">
+        <v>274</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="L26" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M26" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="N26" t="s">
-        <v>215</v>
+        <v>346</v>
       </c>
       <c r="O26" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="P26" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q26" t="b">
+        <v>377</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>403</v>
+      </c>
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0.211</v>
+      </c>
+      <c r="T26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F27" t="s">
-        <v>186</v>
-      </c>
-      <c r="H27" t="s">
-        <v>215</v>
+        <v>191</v>
+      </c>
+      <c r="G27" t="s">
+        <v>236</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="K27" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J27" t="s">
+        <v>276</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="L27" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M27" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="O27" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="P27" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q27" t="b">
+        <v>377</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>404</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
-      </c>
-      <c r="H28" t="s">
-        <v>215</v>
+        <v>192</v>
+      </c>
+      <c r="G28" t="s">
+        <v>237</v>
       </c>
       <c r="I28" t="s">
-        <v>228</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K28" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J28" t="s">
+        <v>276</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="L28" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M28" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="N28" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="O28" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="P28" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q28" t="b">
-        <v>1</v>
+        <v>377</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>404</v>
+      </c>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
-      </c>
-      <c r="H29" t="s">
-        <v>215</v>
+        <v>193</v>
+      </c>
+      <c r="G29" t="s">
+        <v>238</v>
       </c>
       <c r="I29" t="s">
-        <v>228</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="K29" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="L29" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M29" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="N29" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="O29" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="P29" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q29" t="b">
+        <v>377</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>405</v>
+      </c>
+      <c r="R29" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>189</v>
-      </c>
-      <c r="H30" t="s">
-        <v>215</v>
+        <v>194</v>
+      </c>
+      <c r="G30" t="s">
+        <v>239</v>
       </c>
       <c r="I30" t="s">
-        <v>228</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="K30" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J30" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="L30" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M30" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="N30" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="O30" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="P30" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q30" t="b">
+        <v>377</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>406</v>
+      </c>
+      <c r="R30" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>0.211</v>
+      </c>
+      <c r="T30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F31" t="s">
-        <v>190</v>
-      </c>
-      <c r="H31" t="s">
-        <v>221</v>
+        <v>195</v>
+      </c>
+      <c r="G31" t="s">
+        <v>240</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K31" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J31" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="L31" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M31" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="N31" t="s">
-        <v>215</v>
+        <v>349</v>
       </c>
       <c r="O31" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="P31" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q31" t="b">
+        <v>377</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>407</v>
+      </c>
+      <c r="R31" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0.618</v>
+      </c>
+      <c r="T31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F32" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G32" t="s">
-        <v>211</v>
-      </c>
-      <c r="H32" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="I32" t="s">
-        <v>228</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="K32" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="L32" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M32" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="N32" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="O32" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="P32" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q32" t="b">
-        <v>0</v>
+        <v>377</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>408</v>
+      </c>
+      <c r="R32" t="b">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0.232</v>
+      </c>
+      <c r="T32">
+        <v>0.07199999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F33" t="s">
-        <v>192</v>
-      </c>
-      <c r="H33" t="s">
-        <v>215</v>
+        <v>197</v>
+      </c>
+      <c r="G33" t="s">
+        <v>242</v>
       </c>
       <c r="I33" t="s">
-        <v>233</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="K33" t="s">
-        <v>281</v>
+        <v>268</v>
+      </c>
+      <c r="J33" t="s">
+        <v>279</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="L33" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M33" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="N33" t="s">
-        <v>215</v>
+        <v>351</v>
       </c>
       <c r="O33" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="P33" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q33" t="b">
+        <v>377</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>409</v>
+      </c>
+      <c r="R33" t="b">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
-        <v>193</v>
+        <v>198</v>
+      </c>
+      <c r="G34" t="s">
+        <v>243</v>
       </c>
       <c r="H34" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="I34" t="s">
-        <v>229</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="K34" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J34" t="s">
+        <v>274</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="L34" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M34" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="N34" t="s">
-        <v>215</v>
+        <v>328</v>
       </c>
       <c r="O34" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="P34" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q34" t="b">
+        <v>377</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>410</v>
+      </c>
+      <c r="R34" t="b">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0.64</v>
+      </c>
+      <c r="T34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>194</v>
-      </c>
-      <c r="H35" t="s">
-        <v>222</v>
+        <v>199</v>
+      </c>
+      <c r="G35" t="s">
+        <v>244</v>
       </c>
       <c r="I35" t="s">
-        <v>228</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="K35" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J35" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="L35" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="N35" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O35" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="P35" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q35" t="b">
+        <v>377</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>411</v>
+      </c>
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F36" t="s">
-        <v>195</v>
-      </c>
-      <c r="H36" t="s">
-        <v>215</v>
+        <v>200</v>
+      </c>
+      <c r="G36" t="s">
+        <v>245</v>
       </c>
       <c r="I36" t="s">
-        <v>228</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="K36" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J36" t="s">
+        <v>276</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="L36" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="N36" t="s">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="O36" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="P36" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q36" t="b">
-        <v>1</v>
+        <v>377</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>412</v>
+      </c>
+      <c r="R36" t="b">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>196</v>
-      </c>
-      <c r="H37" t="s">
-        <v>223</v>
+        <v>201</v>
+      </c>
+      <c r="G37" t="s">
+        <v>246</v>
       </c>
       <c r="I37" t="s">
-        <v>228</v>
-      </c>
-      <c r="J37" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K37" t="s">
-        <v>281</v>
+      <c r="J37" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="L37" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="N37" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="O37" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="P37" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q37" t="b">
+        <v>377</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>413</v>
+      </c>
+      <c r="R37" t="b">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0.198</v>
+      </c>
+      <c r="T37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F38" t="s">
-        <v>197</v>
-      </c>
-      <c r="H38" t="s">
-        <v>224</v>
+        <v>202</v>
+      </c>
+      <c r="G38" t="s">
+        <v>247</v>
       </c>
       <c r="I38" t="s">
-        <v>228</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="K38" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J38" t="s">
+        <v>274</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="L38" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M38" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N38" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="O38" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="P38" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q38" t="b">
+        <v>377</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>414</v>
+      </c>
+      <c r="R38" t="b">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:20">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F39" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G39" t="s">
-        <v>212</v>
-      </c>
-      <c r="H39" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="I39" t="s">
-        <v>228</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K39" t="s">
-        <v>281</v>
+        <v>270</v>
+      </c>
+      <c r="J39" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="L39" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M39" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="N39" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="O39" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="P39" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q39" t="b">
+        <v>377</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>415</v>
+      </c>
+      <c r="R39" t="b">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0.541</v>
+      </c>
+      <c r="T39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:20">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F40" t="s">
-        <v>199</v>
-      </c>
-      <c r="H40" t="s">
-        <v>225</v>
+        <v>204</v>
+      </c>
+      <c r="G40" t="s">
+        <v>249</v>
       </c>
       <c r="I40" t="s">
-        <v>228</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K40" t="s">
-        <v>281</v>
+        <v>271</v>
+      </c>
+      <c r="J40" t="s">
+        <v>274</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="L40" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M40" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="N40" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="O40" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="P40" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q40" t="b">
+        <v>377</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>416</v>
+      </c>
+      <c r="R40" t="b">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0.304</v>
+      </c>
+      <c r="T40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:20">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F41" t="s">
-        <v>200</v>
+        <v>205</v>
+      </c>
+      <c r="G41" t="s">
+        <v>250</v>
       </c>
       <c r="H41" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="I41" t="s">
-        <v>228</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="K41" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J41" t="s">
+        <v>274</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="L41" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M41" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="N41" t="s">
-        <v>215</v>
+        <v>328</v>
       </c>
       <c r="O41" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="P41" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q41" t="b">
+        <v>378</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>417</v>
+      </c>
+      <c r="R41" t="b">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:20">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="F42" t="s">
-        <v>201</v>
-      </c>
-      <c r="H42" t="s">
-        <v>215</v>
+        <v>206</v>
+      </c>
+      <c r="G42" t="s">
+        <v>251</v>
       </c>
       <c r="I42" t="s">
-        <v>228</v>
-      </c>
-      <c r="J42" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J42" t="s">
         <v>274</v>
       </c>
-      <c r="K42" t="s">
-        <v>281</v>
+      <c r="K42" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="L42" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="N42" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="O42" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="P42" t="s">
         <v>378</v>
       </c>
-      <c r="Q42" t="b">
+      <c r="Q42" t="s">
+        <v>418</v>
+      </c>
+      <c r="R42" t="b">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:20">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F43" t="s">
-        <v>202</v>
-      </c>
-      <c r="H43" t="s">
-        <v>226</v>
+        <v>207</v>
+      </c>
+      <c r="G43" t="s">
+        <v>252</v>
       </c>
       <c r="I43" t="s">
-        <v>228</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K43" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J43" t="s">
+        <v>274</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="L43" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M43" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="N43" t="s">
-        <v>215</v>
+        <v>356</v>
       </c>
       <c r="O43" t="s">
-        <v>336</v>
+        <v>261</v>
       </c>
       <c r="P43" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q43" t="b">
+        <v>378</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>419</v>
+      </c>
+      <c r="R43" t="b">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:20">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="F44" t="s">
-        <v>203</v>
-      </c>
-      <c r="H44" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="G44" t="s">
+        <v>253</v>
       </c>
       <c r="I44" t="s">
-        <v>229</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="K44" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J44" t="s">
+        <v>274</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="L44" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M44" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="N44" t="s">
-        <v>215</v>
+        <v>357</v>
       </c>
       <c r="O44" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="P44" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q44" t="b">
+        <v>378</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>420</v>
+      </c>
+      <c r="R44" t="b">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0.425</v>
+      </c>
+      <c r="T44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:20">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G45" t="s">
-        <v>213</v>
-      </c>
-      <c r="H45" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="I45" t="s">
-        <v>231</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="K45" t="s">
-        <v>281</v>
+        <v>273</v>
+      </c>
+      <c r="J45" t="s">
+        <v>274</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="L45" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="N45" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="O45" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="P45" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q45" t="b">
+        <v>378</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>421</v>
+      </c>
+      <c r="R45" t="b">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:20">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" t="s">
+        <v>165</v>
       </c>
       <c r="F46" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G46" t="s">
-        <v>214</v>
-      </c>
-      <c r="H46" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="I46" t="s">
-        <v>233</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K46" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="J46" t="s">
+        <v>276</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="L46" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="N46" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="O46" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="P46" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" t="s">
-        <v>120</v>
-      </c>
-      <c r="E47" t="s">
-        <v>157</v>
-      </c>
-      <c r="F47" t="s">
-        <v>206</v>
-      </c>
-      <c r="H47" t="s">
-        <v>215</v>
-      </c>
-      <c r="I47" t="s">
-        <v>228</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="K47" t="s">
-        <v>281</v>
-      </c>
-      <c r="L47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M47" t="s">
-        <v>316</v>
-      </c>
-      <c r="N47" t="s">
-        <v>215</v>
-      </c>
-      <c r="O47" t="s">
-        <v>338</v>
-      </c>
-      <c r="P47" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" t="s">
-        <v>133</v>
-      </c>
-      <c r="F48" t="s">
-        <v>207</v>
-      </c>
-      <c r="H48" t="s">
-        <v>215</v>
-      </c>
-      <c r="I48" t="s">
-        <v>228</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="K48" t="s">
-        <v>281</v>
-      </c>
-      <c r="L48" t="s">
-        <v>282</v>
-      </c>
-      <c r="M48" t="s">
-        <v>317</v>
-      </c>
-      <c r="N48" t="s">
-        <v>215</v>
-      </c>
-      <c r="O48" t="s">
-        <v>338</v>
-      </c>
-      <c r="P48" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q48" t="b">
+        <v>378</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>422</v>
+      </c>
+      <c r="R46" t="b">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
-    <hyperlink ref="J8" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="J11" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="J13" r:id="rId12"/>
-    <hyperlink ref="J14" r:id="rId13"/>
-    <hyperlink ref="J15" r:id="rId14"/>
-    <hyperlink ref="J16" r:id="rId15"/>
-    <hyperlink ref="J17" r:id="rId16"/>
-    <hyperlink ref="J18" r:id="rId17"/>
-    <hyperlink ref="J19" r:id="rId18"/>
-    <hyperlink ref="J20" r:id="rId19"/>
-    <hyperlink ref="J21" r:id="rId20"/>
-    <hyperlink ref="J22" r:id="rId21"/>
-    <hyperlink ref="J23" r:id="rId22"/>
-    <hyperlink ref="J24" r:id="rId23"/>
-    <hyperlink ref="J25" r:id="rId24"/>
-    <hyperlink ref="J26" r:id="rId25"/>
-    <hyperlink ref="J27" r:id="rId26"/>
-    <hyperlink ref="J28" r:id="rId27"/>
-    <hyperlink ref="J29" r:id="rId28"/>
-    <hyperlink ref="J30" r:id="rId29"/>
-    <hyperlink ref="J31" r:id="rId30"/>
-    <hyperlink ref="J32" r:id="rId31"/>
-    <hyperlink ref="J33" r:id="rId32"/>
-    <hyperlink ref="J34" r:id="rId33"/>
-    <hyperlink ref="J35" r:id="rId34"/>
-    <hyperlink ref="J36" r:id="rId35"/>
-    <hyperlink ref="J37" r:id="rId36"/>
-    <hyperlink ref="J38" r:id="rId37"/>
-    <hyperlink ref="J39" r:id="rId38"/>
-    <hyperlink ref="J40" r:id="rId39"/>
-    <hyperlink ref="J41" r:id="rId40"/>
-    <hyperlink ref="J42" r:id="rId41"/>
-    <hyperlink ref="J43" r:id="rId42"/>
-    <hyperlink ref="J44" r:id="rId43"/>
-    <hyperlink ref="J45" r:id="rId44"/>
-    <hyperlink ref="J46" r:id="rId45"/>
-    <hyperlink ref="J47" r:id="rId46"/>
-    <hyperlink ref="J48" r:id="rId47"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K8" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
+    <hyperlink ref="K11" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
+    <hyperlink ref="K13" r:id="rId12"/>
+    <hyperlink ref="K14" r:id="rId13"/>
+    <hyperlink ref="K15" r:id="rId14"/>
+    <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
+    <hyperlink ref="K19" r:id="rId18"/>
+    <hyperlink ref="K20" r:id="rId19"/>
+    <hyperlink ref="K21" r:id="rId20"/>
+    <hyperlink ref="K22" r:id="rId21"/>
+    <hyperlink ref="K23" r:id="rId22"/>
+    <hyperlink ref="K24" r:id="rId23"/>
+    <hyperlink ref="K25" r:id="rId24"/>
+    <hyperlink ref="K26" r:id="rId25"/>
+    <hyperlink ref="K27" r:id="rId26"/>
+    <hyperlink ref="K28" r:id="rId27"/>
+    <hyperlink ref="K29" r:id="rId28"/>
+    <hyperlink ref="K30" r:id="rId29"/>
+    <hyperlink ref="K31" r:id="rId30"/>
+    <hyperlink ref="K32" r:id="rId31"/>
+    <hyperlink ref="K33" r:id="rId32"/>
+    <hyperlink ref="K34" r:id="rId33"/>
+    <hyperlink ref="K35" r:id="rId34"/>
+    <hyperlink ref="K36" r:id="rId35"/>
+    <hyperlink ref="K37" r:id="rId36"/>
+    <hyperlink ref="K38" r:id="rId37"/>
+    <hyperlink ref="K39" r:id="rId38"/>
+    <hyperlink ref="K40" r:id="rId39"/>
+    <hyperlink ref="K41" r:id="rId40"/>
+    <hyperlink ref="K42" r:id="rId41"/>
+    <hyperlink ref="K43" r:id="rId42"/>
+    <hyperlink ref="K44" r:id="rId43"/>
+    <hyperlink ref="K45" r:id="rId44"/>
+    <hyperlink ref="K46" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
